--- a/template_examples/wes_combined_analysis_template.xlsx
+++ b/template_examples/wes_combined_analysis_template.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rbiswas/PycharmProjects/schema/cidc-schemas/template_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E831B3-4863-FE42-896B-847E2396FCED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A8F4DF4-705B-7941-9D5E-55B5611BBA1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="220" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="WES Analysis" sheetId="1" r:id="rId1"/>
+    <sheet name="WES Combined Analysis" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -60,7 +60,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Specimen identifier assigned by the CIMAC-CIDC Network. Formatted as C????????.??</t>
+          <t>Path to a file on a user's computer.</t>
         </r>
       </text>
     </comment>
@@ -95,20 +95,7 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Path to a file on a user's computer.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -121,12 +108,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="17">
   <si>
     <t>#t</t>
   </si>
   <si>
-    <t>Wes analysis template</t>
+    <t>Wes combined analysis template</t>
   </si>
   <si>
     <t>#p</t>
@@ -147,13 +134,10 @@
     <t>#d</t>
   </si>
   <si>
-    <t>Cimac id</t>
+    <t>Tumor cimac id</t>
   </si>
   <si>
-    <t>Tumor</t>
-  </si>
-  <si>
-    <t>Normal</t>
+    <t>Normal cimac id</t>
   </si>
   <si>
     <t>Somatic</t>
@@ -171,23 +155,17 @@
     <t>CTTTPP111.00</t>
   </si>
   <si>
-    <t>tumor</t>
-  </si>
-  <si>
-    <t>normal</t>
+    <t>germline</t>
   </si>
   <si>
     <t>somatic</t>
-  </si>
-  <si>
-    <t>germline</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,6 +184,18 @@
     <font>
       <sz val="10"/>
       <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
@@ -274,7 +264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
@@ -285,6 +275,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -626,7 +617,7 @@
   <dimension ref="A1:F206"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -635,7 +626,7 @@
     <col min="2" max="101" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -655,7 +646,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -669,7 +660,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -682,7 +673,6 @@
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -700,28 +690,22 @@
       <c r="E6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
         <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -1722,7 +1706,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/template_examples/wes_combined_analysis_template.xlsx
+++ b/template_examples/wes_combined_analysis_template.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rbiswas/PycharmProjects/schema/cidc-schemas/template_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A8F4DF4-705B-7941-9D5E-55B5611BBA1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF4B3BCA-9978-8C42-8FAD-46C7815055F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="WES Combined Analysis" sheetId="1" r:id="rId1"/>
+    <sheet name="WES Analysis" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -34,11 +34,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>User defined unique identifier for this assay run.</t>
+          <t>Trial identifier used by lead organization, ie. Center for Experimental Therapeutics Program (CTEP) ID or Industry Sponsored ID.  This is usually a short identifier. Example: E4412.</t>
         </r>
       </text>
     </comment>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -47,11 +47,24 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Trial identifier used by lead organization, ie. Center for Experimental Therapeutics Program (CTEP) ID or Industry Sponsored ID.  This is usually a short identifier. Example: E4412.</t>
+          <t>Specimen identifier assigned by the CIMAC-CIDC Network. Formatted as C????????.??</t>
         </r>
       </text>
     </comment>
-    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Specimen identifier assigned by the CIMAC-CIDC Network. Formatted as C????????.??</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -64,62 +77,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Path to a file on a user's computer.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Path to a file on a user's computer.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Path to a file on a user's computer.</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="11">
   <si>
     <t>#t</t>
   </si>
   <si>
-    <t>Wes combined analysis template</t>
+    <t>Wes analysis template</t>
   </si>
   <si>
     <t>#p</t>
-  </si>
-  <si>
-    <t>Assay run id</t>
   </si>
   <si>
     <t>Protocol identifier</t>
@@ -140,32 +111,17 @@
     <t>Normal cimac id</t>
   </si>
   <si>
-    <t>Somatic</t>
-  </si>
-  <si>
-    <t>Germline</t>
-  </si>
-  <si>
-    <t>test_prism_trial_id_run_1</t>
+    <t>Root dir</t>
   </si>
   <si>
     <t>test_prism_trial_id</t>
-  </si>
-  <si>
-    <t>CTTTPP111.00</t>
-  </si>
-  <si>
-    <t>germline</t>
-  </si>
-  <si>
-    <t>somatic</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,18 +140,6 @@
     <font>
       <sz val="10"/>
       <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
@@ -264,7 +208,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
@@ -275,7 +219,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -614,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F206"/>
+  <dimension ref="A1:F205"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -646,1067 +589,1037 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B5" s="3" t="s">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A206" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B4:D4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
